--- a/docs/StatementFSM.xlsx
+++ b/docs/StatementFSM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>state</t>
   </si>
@@ -105,13 +105,37 @@
   </si>
   <si>
     <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>browse_data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IF
+   gui_top = gui_bottom = 0
+ OR
+   2 * gui_bottom - gui_top &gt;= buf_bottom
+THEN
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prefetch</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +147,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -330,49 +362,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:G24"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,46 +724,46 @@
     <col min="2" max="2" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="27.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -745,7 +780,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
@@ -760,7 +795,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
@@ -775,7 +810,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -790,7 +825,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
@@ -805,47 +840,47 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -858,126 +893,126 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="24" t="s">
+    <row r="18" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -990,24 +1025,24 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1020,24 +1055,24 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7" t="s">
-        <v>21</v>
+      <c r="A26" s="20"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1046,13 +1081,13 @@
         <v>20</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1061,174 +1096,189 @@
         <v>20</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="F28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="8" t="s">
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="25" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G33" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="23" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="26" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="6" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>11</v>
+      <c r="F39" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A31:A37"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
